--- a/files/samples/CLASS 5 SA-1.xlsx
+++ b/files/samples/CLASS 5 SA-1.xlsx
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,9 +426,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,19 +767,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
@@ -793,19 +790,19 @@
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -816,19 +813,19 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -839,15 +836,15 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -872,7 +869,7 @@
       <c r="G6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="22" t="s">
@@ -901,31 +898,31 @@
         <v>11</v>
       </c>
       <c r="C7" s="15">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D7" s="15">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E7" s="15">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F7" s="15">
-        <v>10</v>
-      </c>
-      <c r="G7" s="23">
-        <v>20</v>
-      </c>
-      <c r="H7" s="25">
-        <v>20</v>
-      </c>
-      <c r="I7" s="25">
+        <v>80</v>
+      </c>
+      <c r="G7" s="15">
+        <v>80</v>
+      </c>
+      <c r="H7" s="15">
+        <v>80</v>
+      </c>
+      <c r="I7" s="24">
         <f>C7+D7+E7+F7+G7+H7</f>
-        <v>90</v>
-      </c>
-      <c r="J7" s="25">
+        <v>480</v>
+      </c>
+      <c r="J7" s="24">
         <v>150</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="24" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7"/>
@@ -960,11 +957,11 @@
         <v>55</v>
       </c>
       <c r="H8" s="3">
-        <v>10</v>
-      </c>
-      <c r="I8" s="25">
+        <v>50</v>
+      </c>
+      <c r="I8" s="24">
         <f>SUMIF(C8:H8,"&lt;&gt;#AB")</f>
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="J8" s="21">
         <v>100</v>
@@ -1003,12 +1000,12 @@
       <c r="G9" s="5">
         <v>55</v>
       </c>
-      <c r="H9" s="2">
-        <v>10</v>
-      </c>
-      <c r="I9" s="25">
+      <c r="H9" s="3">
+        <v>50</v>
+      </c>
+      <c r="I9" s="24">
         <f t="shared" ref="I9:I56" si="0">SUMIF(C9:H9,"&lt;&gt;#AB")</f>
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="J9" s="13">
         <v>110</v>
@@ -1047,12 +1044,12 @@
       <c r="G10" s="5">
         <v>55</v>
       </c>
-      <c r="H10" s="2">
-        <v>10</v>
-      </c>
-      <c r="I10" s="25">
-        <f t="shared" si="0"/>
-        <v>235</v>
+      <c r="H10" s="3">
+        <v>50</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>275</v>
       </c>
       <c r="J10" s="13">
         <v>115</v>
@@ -1078,7 +1075,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="5"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="25">
+      <c r="I11" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1102,7 +1099,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="25">
+      <c r="I12" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1126,7 +1123,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="5"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="25">
+      <c r="I13" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1150,7 +1147,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="25">
+      <c r="I14" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1174,7 +1171,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="25">
+      <c r="I15" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1198,7 +1195,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="5"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="25">
+      <c r="I16" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1222,7 +1219,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="25">
+      <c r="I17" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1246,7 +1243,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="5"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="25">
+      <c r="I18" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1270,7 +1267,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="5"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="25">
+      <c r="I19" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1294,7 +1291,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="5"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="25">
+      <c r="I20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1318,7 +1315,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="5"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="25">
+      <c r="I21" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1342,7 +1339,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="5"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="25">
+      <c r="I22" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1366,7 +1363,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="25">
+      <c r="I23" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1390,7 +1387,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="5"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="25">
+      <c r="I24" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1414,7 +1411,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="25">
+      <c r="I25" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1430,7 +1427,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="25">
+      <c r="I26" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1446,7 +1443,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="25">
+      <c r="I27" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1462,7 +1459,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="25">
+      <c r="I28" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1478,7 +1475,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="25">
+      <c r="I29" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1494,7 +1491,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="25">
+      <c r="I30" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1510,7 +1507,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="25">
+      <c r="I31" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1526,7 +1523,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="25">
+      <c r="I32" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1542,7 +1539,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="25">
+      <c r="I33" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1558,7 +1555,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="25">
+      <c r="I34" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1574,7 +1571,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="25">
+      <c r="I35" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1590,7 +1587,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
       <c r="H36" s="11"/>
-      <c r="I36" s="25">
+      <c r="I36" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1606,7 +1603,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="25">
+      <c r="I37" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1622,7 +1619,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="25">
+      <c r="I38" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1638,7 +1635,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="25">
+      <c r="I39" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1654,7 +1651,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="25">
+      <c r="I40" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1670,7 +1667,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="25">
+      <c r="I41" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1686,7 +1683,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="25">
+      <c r="I42" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1702,7 +1699,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="25">
+      <c r="I43" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1718,7 +1715,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="25">
+      <c r="I44" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1734,7 +1731,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
       <c r="H45" s="11"/>
-      <c r="I45" s="25">
+      <c r="I45" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1750,7 +1747,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
       <c r="H46" s="11"/>
-      <c r="I46" s="25">
+      <c r="I46" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1766,7 +1763,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
       <c r="H47" s="11"/>
-      <c r="I47" s="25">
+      <c r="I47" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1782,7 +1779,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
       <c r="H48" s="11"/>
-      <c r="I48" s="25">
+      <c r="I48" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1798,7 +1795,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
       <c r="H49" s="11"/>
-      <c r="I49" s="25">
+      <c r="I49" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1814,7 +1811,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="12"/>
       <c r="H50" s="11"/>
-      <c r="I50" s="25">
+      <c r="I50" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1830,7 +1827,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
       <c r="H51" s="11"/>
-      <c r="I51" s="25">
+      <c r="I51" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1846,7 +1843,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="12"/>
       <c r="H52" s="11"/>
-      <c r="I52" s="25">
+      <c r="I52" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1862,7 +1859,7 @@
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
       <c r="H53" s="11"/>
-      <c r="I53" s="25">
+      <c r="I53" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1878,7 +1875,7 @@
       <c r="F54" s="11"/>
       <c r="G54" s="12"/>
       <c r="H54" s="11"/>
-      <c r="I54" s="25">
+      <c r="I54" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1894,7 +1891,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
       <c r="H55" s="11"/>
-      <c r="I55" s="25">
+      <c r="I55" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1910,7 +1907,7 @@
       <c r="F56" s="11"/>
       <c r="G56" s="12"/>
       <c r="H56" s="11"/>
-      <c r="I56" s="25">
+      <c r="I56" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
